--- a/Source/Pivot Excel/Cau6_3PM.xlsx
+++ b/Source/Pivot Excel/Cau6_3PM.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIET's Folder\CODE\UIT\Third_year\Semester 2\IS217_Data_warehouse_and_OLAP\SASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - IT software\Máy tính\UIT\nam_BA\HK2\IS217-KhoDLvaOLAP\PROJECT\Project-OLAP\IS217---Datawarehouse-and-OLAP\Source\Pivot Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5141844-0097-41D1-A80D-86F56488FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEB247B-0EA0-430A-9C88-AC31CDFE51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp22C3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -527,13 +527,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -688,7 +687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team Name" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team Name" fieldListSortAscending="1">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1091,7 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1111,7 +1112,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>16856</v>
       </c>
     </row>
@@ -1119,7 +1120,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>19160</v>
       </c>
     </row>
